--- a/data/trans_orig/P33B1_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P33B1_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>26264</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17748</v>
+        <v>16767</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>39056</v>
+        <v>37927</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04769916210268173</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03223254953745844</v>
+        <v>0.03045132301621612</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0709318851202061</v>
+        <v>0.06888027472079519</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>48</v>
@@ -762,19 +762,19 @@
         <v>32975</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>24541</v>
+        <v>24945</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>44349</v>
+        <v>44000</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.0675150693046874</v>
+        <v>0.06751506930468737</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05024722103794078</v>
+        <v>0.05107328682668903</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09080330554694722</v>
+        <v>0.0900873721211785</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>75</v>
@@ -783,19 +783,19 @@
         <v>59239</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>46612</v>
+        <v>46080</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>74206</v>
+        <v>75039</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05701391979838587</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04486070595867633</v>
+        <v>0.04434951807803868</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07141878957121517</v>
+        <v>0.07222042102655091</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>32793</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>23738</v>
+        <v>23881</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>46906</v>
+        <v>45491</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05955630646017526</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04311107979155724</v>
+        <v>0.04337085008053979</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0851871274050582</v>
+        <v>0.08261790156298475</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>56</v>
@@ -833,19 +833,19 @@
         <v>33779</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>26297</v>
+        <v>25729</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>42875</v>
+        <v>42653</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.06916084397031817</v>
+        <v>0.06916084397031816</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05384199700837521</v>
+        <v>0.05267870601831768</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08778402991955246</v>
+        <v>0.08732998610855616</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>92</v>
@@ -854,19 +854,19 @@
         <v>66572</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>53270</v>
+        <v>53251</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>81448</v>
+        <v>81064</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06407106012622128</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05126924254647978</v>
+        <v>0.05125098648752976</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07838844863025993</v>
+        <v>0.07801928817862482</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>103067</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>86772</v>
+        <v>85556</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>121638</v>
+        <v>122859</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1871850654015283</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1575906531521356</v>
+        <v>0.1553816056685668</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2209124882808819</v>
+        <v>0.22313007857646</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>158</v>
@@ -904,19 +904,19 @@
         <v>107462</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>93518</v>
+        <v>91065</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>124439</v>
+        <v>124065</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.2200241448512962</v>
+        <v>0.2200241448512963</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1914731785913837</v>
+        <v>0.1864506756079675</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.254782474602604</v>
+        <v>0.2540173677864847</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>275</v>
@@ -925,19 +925,19 @@
         <v>210530</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>187234</v>
+        <v>186668</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>236482</v>
+        <v>235998</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2026215561413318</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1802014096989109</v>
+        <v>0.1796560892235015</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2275993373294991</v>
+        <v>0.2271335535480362</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>388494</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>365002</v>
+        <v>364410</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>408322</v>
+        <v>410558</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7055594660356147</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6628956580634763</v>
+        <v>0.6618196896609778</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.741569659237209</v>
+        <v>0.7456312553199123</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>424</v>
@@ -975,19 +975,19 @@
         <v>314195</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>294554</v>
+        <v>295990</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>332132</v>
+        <v>333386</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.6432999418736983</v>
+        <v>0.6432999418736982</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6030861792626691</v>
+        <v>0.6060259514856677</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6800259627083237</v>
+        <v>0.6825940427214248</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>798</v>
@@ -996,19 +996,19 @@
         <v>702689</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>672275</v>
+        <v>674735</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>730119</v>
+        <v>731623</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6762934639340611</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6470224485186422</v>
+        <v>0.6493903119546693</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7026931704290295</v>
+        <v>0.704140754599284</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>27952</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>19104</v>
+        <v>19129</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>38707</v>
+        <v>38556</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.05784690671721035</v>
+        <v>0.05784690671721034</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03953609378123439</v>
+        <v>0.03958654323626416</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08010356981901132</v>
+        <v>0.0797904386054628</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>53</v>
@@ -1121,19 +1121,19 @@
         <v>36362</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>27608</v>
+        <v>26513</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>47278</v>
+        <v>46300</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.08593424267753356</v>
+        <v>0.08593424267753355</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0652441568413977</v>
+        <v>0.06265695196510401</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1117295741340363</v>
+        <v>0.1094203275298184</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>85</v>
@@ -1142,19 +1142,19 @@
         <v>64315</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>51632</v>
+        <v>51652</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>78025</v>
+        <v>79195</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0709598210711509</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05696685324740594</v>
+        <v>0.05698878358920367</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.08608623140968748</v>
+        <v>0.08737758527765818</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>25468</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17434</v>
+        <v>16865</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>37341</v>
+        <v>37901</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05270548417715337</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03607986207802188</v>
+        <v>0.03490160134420205</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07727594180413314</v>
+        <v>0.07843535134106752</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>55</v>
@@ -1192,19 +1192,19 @@
         <v>38576</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>29348</v>
+        <v>29766</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>50663</v>
+        <v>51016</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09116610514465535</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0693571553250435</v>
+        <v>0.070343906894514</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.119729446681489</v>
+        <v>0.1205645796471689</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>82</v>
@@ -1213,19 +1213,19 @@
         <v>64044</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>50947</v>
+        <v>51488</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>80733</v>
+        <v>81279</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07066129278280585</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05621070416226049</v>
+        <v>0.05680824153155989</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08907469128146152</v>
+        <v>0.08967690087847091</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>100702</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>84221</v>
+        <v>83154</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>118162</v>
+        <v>121507</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2084003637517162</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1742936968025274</v>
+        <v>0.1720854974652135</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2445340710728852</v>
+        <v>0.2514572880469432</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>149</v>
@@ -1263,19 +1263,19 @@
         <v>97659</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>82595</v>
+        <v>82658</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>112635</v>
+        <v>111700</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2307941808895339</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.195194228272757</v>
+        <v>0.1953422772328905</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2661859146777805</v>
+        <v>0.2639770223076318</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>263</v>
@@ -1284,19 +1284,19 @@
         <v>198360</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>176057</v>
+        <v>176641</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>221730</v>
+        <v>220974</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2188551896063584</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1942469360917917</v>
+        <v>0.1948914451256769</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2446397070143691</v>
+        <v>0.2438049213142565</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>329090</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>307797</v>
+        <v>307620</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>349475</v>
+        <v>349666</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.68104724535392</v>
+        <v>0.6810472453539201</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6369809768796298</v>
+        <v>0.6366159065158382</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7232323511940171</v>
+        <v>0.7236295757917698</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>333</v>
@@ -1334,19 +1334,19 @@
         <v>250545</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>232860</v>
+        <v>232801</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>268131</v>
+        <v>268112</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5921054712882771</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5503109120692703</v>
+        <v>0.5501703231584945</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6336647699235972</v>
+        <v>0.6336211393827792</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>641</v>
@@ -1355,19 +1355,19 @@
         <v>579635</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>548799</v>
+        <v>551044</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>603731</v>
+        <v>605124</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.6395236965396849</v>
+        <v>0.6395236965396848</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6055008840357315</v>
+        <v>0.607978549801635</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6661091484441881</v>
+        <v>0.6676460650368917</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>40961</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>30610</v>
+        <v>30761</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>54454</v>
+        <v>54191</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.08685296652002759</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06490570283111073</v>
+        <v>0.06522434412156802</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1154641072169296</v>
+        <v>0.1149058598197047</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>38</v>
@@ -1480,19 +1480,19 @@
         <v>23811</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17068</v>
+        <v>17276</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>31805</v>
+        <v>31995</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1273774681152038</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09130514130946024</v>
+        <v>0.09241983744517511</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.170142700542441</v>
+        <v>0.1711596382959865</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>86</v>
@@ -1501,19 +1501,19 @@
         <v>64771</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>52215</v>
+        <v>51567</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>79180</v>
+        <v>78706</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.09835596809290201</v>
+        <v>0.09835596809290199</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07928953668520586</v>
+        <v>0.07830442687293972</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1202356021923074</v>
+        <v>0.119515954430247</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>37927</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>27696</v>
+        <v>27607</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>52445</v>
+        <v>52157</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.08042028401326909</v>
+        <v>0.08042028401326907</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.0587264020935489</v>
+        <v>0.05853789553729334</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1112038142433872</v>
+        <v>0.1105928969520832</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>36</v>
@@ -1551,19 +1551,19 @@
         <v>26155</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>18681</v>
+        <v>18349</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>37247</v>
+        <v>37363</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1399202011084891</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.09993503716171108</v>
+        <v>0.09815809767022257</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1992598632943921</v>
+        <v>0.1998777527930442</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>77</v>
@@ -1572,19 +1572,19 @@
         <v>64082</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>48636</v>
+        <v>49494</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>79872</v>
+        <v>80903</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.09730951430583075</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.0738537085731579</v>
+        <v>0.07515759491973663</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1212870841977874</v>
+        <v>0.122852621569397</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>94109</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>79435</v>
+        <v>78055</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>113969</v>
+        <v>113390</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1995482375293315</v>
+        <v>0.1995482375293314</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1684324625908021</v>
+        <v>0.1655076762206095</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2416581372387863</v>
+        <v>0.2404308162032991</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>76</v>
@@ -1622,19 +1622,19 @@
         <v>42938</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>34494</v>
+        <v>34944</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>52494</v>
+        <v>53328</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2297044258394352</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1845283944345777</v>
+        <v>0.1869374755374084</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2808231943162987</v>
+        <v>0.285283517795384</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>185</v>
@@ -1643,19 +1643,19 @@
         <v>137048</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>117617</v>
+        <v>117999</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>155737</v>
+        <v>157402</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2081081622146067</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1786025979524195</v>
+        <v>0.1791826853120176</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2364876606809819</v>
+        <v>0.2390160687140491</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>298615</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>276778</v>
+        <v>277191</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>319098</v>
+        <v>319773</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.633178511937372</v>
+        <v>0.6331785119373718</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5868761183320222</v>
+        <v>0.5877521166475753</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6766106429157108</v>
+        <v>0.6780430706828574</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>138</v>
@@ -1693,19 +1693,19 @@
         <v>94025</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>83353</v>
+        <v>82752</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>106106</v>
+        <v>105216</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5029979049368719</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4459078263468782</v>
+        <v>0.4426938459843799</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5676274587380074</v>
+        <v>0.5628663211889626</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>428</v>
@@ -1714,19 +1714,19 @@
         <v>392639</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>370033</v>
+        <v>368393</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>421138</v>
+        <v>415902</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5962263553866607</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5618990180009567</v>
+        <v>0.5594085978311076</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6395021451183875</v>
+        <v>0.6315515141293259</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>87272</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>71839</v>
+        <v>72241</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>107168</v>
+        <v>107665</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07710624481809282</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06347053476937846</v>
+        <v>0.06382575716401923</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09468439448862317</v>
+        <v>0.09512322623834267</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>112</v>
@@ -1839,19 +1839,19 @@
         <v>76383</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>62094</v>
+        <v>61986</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>91528</v>
+        <v>91785</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08869310840274547</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07210086010650939</v>
+        <v>0.07197483652889515</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1062787765604812</v>
+        <v>0.1065763688766982</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>212</v>
@@ -1860,19 +1860,19 @@
         <v>163656</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>142996</v>
+        <v>141301</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>187159</v>
+        <v>187741</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.08211300239457127</v>
+        <v>0.08211300239457128</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07174716462321568</v>
+        <v>0.07089655083517174</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09390555919011759</v>
+        <v>0.09419777382864712</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>60657</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>46506</v>
+        <v>47380</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>73974</v>
+        <v>76194</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05359170964334408</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04108840902851213</v>
+        <v>0.04186106420856316</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06535745761424562</v>
+        <v>0.06731845938153884</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>135</v>
@@ -1910,19 +1910,19 @@
         <v>83919</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>70128</v>
+        <v>71382</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>97908</v>
+        <v>101751</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.09744286155793123</v>
+        <v>0.09744286155793122</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08142943997092568</v>
+        <v>0.08288572166839621</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1136863398180457</v>
+        <v>0.1181491974174996</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>210</v>
@@ -1931,19 +1931,19 @@
         <v>144576</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>126385</v>
+        <v>123830</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>166110</v>
+        <v>164351</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.07254007176754089</v>
+        <v>0.0725400717675409</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0634125368109812</v>
+        <v>0.06213095580990082</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08334450242947164</v>
+        <v>0.08246190123260384</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>239156</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>211915</v>
+        <v>213451</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>267519</v>
+        <v>266074</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2112974884970983</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1872304178475341</v>
+        <v>0.1885871696691369</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2363566911611326</v>
+        <v>0.2350804690157083</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>322</v>
@@ -1981,19 +1981,19 @@
         <v>195497</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>177648</v>
+        <v>176772</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>218008</v>
+        <v>216833</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.2270030017084968</v>
+        <v>0.2270030017084967</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2062764642099896</v>
+        <v>0.2052592442484305</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2531408103956999</v>
+        <v>0.2517764531463006</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>589</v>
@@ -2002,19 +2002,19 @@
         <v>434653</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>399153</v>
+        <v>403026</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>470223</v>
+        <v>472101</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.2180839408177941</v>
+        <v>0.2180839408177942</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2002718387493879</v>
+        <v>0.2022154548520605</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2359307809399729</v>
+        <v>0.2368731509324431</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>744758</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>713866</v>
+        <v>712107</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>778005</v>
+        <v>777870</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.6580045570414647</v>
+        <v>0.6580045570414648</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6307114053690578</v>
+        <v>0.6291572968441569</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6873789811768495</v>
+        <v>0.6872593680986178</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>661</v>
@@ -2052,19 +2052,19 @@
         <v>505411</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>480784</v>
+        <v>482001</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>529207</v>
+        <v>529292</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5868610283308265</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5582652690415443</v>
+        <v>0.5596778191090139</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6144914800339424</v>
+        <v>0.6145899078430632</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1337</v>
@@ -2073,19 +2073,19 @@
         <v>1250169</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1208198</v>
+        <v>1211396</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1288302</v>
+        <v>1293312</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.6272629850200937</v>
+        <v>0.6272629850200938</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6062044451972602</v>
+        <v>0.6078089291196426</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.646395753855993</v>
+        <v>0.6489096930588903</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>35967</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>26137</v>
+        <v>25364</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>48277</v>
+        <v>48236</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.06344714318832628</v>
+        <v>0.06344714318832627</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04610578885412392</v>
+        <v>0.04474308148039964</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08516193459421531</v>
+        <v>0.08508983557865794</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>180</v>
@@ -2198,19 +2198,19 @@
         <v>116138</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>100691</v>
+        <v>101428</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>133897</v>
+        <v>134039</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1399033961661353</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1212961084895215</v>
+        <v>0.1221835300831389</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1612972826234326</v>
+        <v>0.1614685681557662</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>223</v>
@@ -2219,19 +2219,19 @@
         <v>152105</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>131136</v>
+        <v>131641</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>173672</v>
+        <v>171557</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.1088787896430031</v>
+        <v>0.108878789643003</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0938691185952278</v>
+        <v>0.09423082521709966</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1243170459274132</v>
+        <v>0.1228028107781344</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>39754</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>29144</v>
+        <v>29402</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>52580</v>
+        <v>52867</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.07012749590833753</v>
+        <v>0.07012749590833751</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05141172783026476</v>
+        <v>0.05186553901749703</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09275273671810129</v>
+        <v>0.09325918246821492</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>188</v>
@@ -2269,19 +2269,19 @@
         <v>106731</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>92281</v>
+        <v>92899</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>122983</v>
+        <v>122928</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1285713783215973</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1111645077357338</v>
+        <v>0.1119093226416835</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1481495515247111</v>
+        <v>0.1480839237080468</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>233</v>
@@ -2290,19 +2290,19 @@
         <v>146485</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>127590</v>
+        <v>127811</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>167479</v>
+        <v>168063</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1048558758618853</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09133081824060309</v>
+        <v>0.09148932213248318</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1198837293168057</v>
+        <v>0.1203022433820037</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>110671</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>91979</v>
+        <v>91749</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>132073</v>
+        <v>132088</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1952277461938901</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1622536927151053</v>
+        <v>0.1618487446419602</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2329806214219435</v>
+        <v>0.2330080989030854</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>354</v>
@@ -2340,19 +2340,19 @@
         <v>210290</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>190064</v>
+        <v>189476</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>231974</v>
+        <v>231969</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2533229361354299</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2289573282115493</v>
+        <v>0.2282497662768208</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2794435826571054</v>
+        <v>0.2794377218692104</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>471</v>
@@ -2361,19 +2361,19 @@
         <v>320961</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>291443</v>
+        <v>294223</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>348959</v>
+        <v>351470</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2297489269651658</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.208619070696124</v>
+        <v>0.2106095877253894</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2497897567115859</v>
+        <v>0.2515872070995119</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>380490</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>356093</v>
+        <v>356974</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>404200</v>
+        <v>403542</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.6711976147094462</v>
+        <v>0.6711976147094461</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6281615833961588</v>
+        <v>0.6297145398005248</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7130226735313784</v>
+        <v>0.711861866890368</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>567</v>
@@ -2411,19 +2411,19 @@
         <v>396969</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>374078</v>
+        <v>372119</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>422321</v>
+        <v>421537</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.4782022893768376</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.4506271656290387</v>
+        <v>0.4482677455946927</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.5087424554207116</v>
+        <v>0.5077986653757415</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>908</v>
@@ -2432,19 +2432,19 @@
         <v>777458</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>740725</v>
+        <v>742819</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>814188</v>
+        <v>814030</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.556516407529946</v>
+        <v>0.5565164075299459</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.530222211147826</v>
+        <v>0.5317211919206615</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.5828077160640031</v>
+        <v>0.582694652461124</v>
       </c>
     </row>
     <row r="28">
@@ -2536,19 +2536,19 @@
         <v>12926</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5464</v>
+        <v>5106</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>30334</v>
+        <v>27846</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05448943275835095</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02303266214205409</v>
+        <v>0.02152353733428474</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1278685174312144</v>
+        <v>0.1173813749730941</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>183</v>
@@ -2557,19 +2557,19 @@
         <v>117944</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>101612</v>
+        <v>102413</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>136922</v>
+        <v>135712</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.139697675516884</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1203536278104827</v>
+        <v>0.1213025905566565</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1621758137691149</v>
+        <v>0.1607425397082964</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>192</v>
@@ -2578,19 +2578,19 @@
         <v>130871</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>112987</v>
+        <v>111442</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>154623</v>
+        <v>154748</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1210073414774436</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1044714057218247</v>
+        <v>0.1030428215232261</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1429693347477938</v>
+        <v>0.143085109333622</v>
       </c>
     </row>
     <row r="30">
@@ -2607,19 +2607,19 @@
         <v>9688</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3374</v>
+        <v>3401</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>22458</v>
+        <v>23398</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.04083765455128907</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01422276603629453</v>
+        <v>0.01433577263516338</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.09466645180179267</v>
+        <v>0.09863129492858007</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>139</v>
@@ -2628,19 +2628,19 @@
         <v>86672</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>72383</v>
+        <v>70762</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>103245</v>
+        <v>102156</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.102658289074585</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.08573342535792232</v>
+        <v>0.08381320535549069</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1222875976522515</v>
+        <v>0.1209971198166468</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>144</v>
@@ -2649,19 +2649,19 @@
         <v>96360</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>79917</v>
+        <v>79426</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>117816</v>
+        <v>115581</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.08909800109816325</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.07389357289230926</v>
+        <v>0.07343986254149019</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1089365001493128</v>
+        <v>0.1068704227823022</v>
       </c>
     </row>
     <row r="31">
@@ -2678,19 +2678,19 @@
         <v>22940</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>11581</v>
+        <v>12710</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>38613</v>
+        <v>42903</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.09670045354854537</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.04881733396207986</v>
+        <v>0.0535789711437733</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1627654584374175</v>
+        <v>0.1808508932285095</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>348</v>
@@ -2699,19 +2699,19 @@
         <v>205823</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>183459</v>
+        <v>185552</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>229535</v>
+        <v>230636</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.2437851974327522</v>
+        <v>0.2437851974327523</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2172966550238715</v>
+        <v>0.2197753732843828</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2718703105411072</v>
+        <v>0.2731739606679918</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>362</v>
@@ -2720,19 +2720,19 @@
         <v>228763</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>205348</v>
+        <v>204279</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>256350</v>
+        <v>255145</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2115223211392957</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1898721532787303</v>
+        <v>0.1888833998001051</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2370299713043179</v>
+        <v>0.2359156802808564</v>
       </c>
     </row>
     <row r="32">
@@ -2749,19 +2749,19 @@
         <v>191674</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>169533</v>
+        <v>171100</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>208183</v>
+        <v>207971</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8079724591418146</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7146416221438402</v>
+        <v>0.7212477482928995</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8775663967609575</v>
+        <v>0.8766695004380829</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>489</v>
@@ -2770,19 +2770,19 @@
         <v>433841</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>405832</v>
+        <v>407119</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>465597</v>
+        <v>463056</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.5138588379757786</v>
+        <v>0.5138588379757787</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4806835089982369</v>
+        <v>0.4822075576373741</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5514721230647106</v>
+        <v>0.5484619415917317</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>573</v>
@@ -2791,19 +2791,19 @@
         <v>625515</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>589514</v>
+        <v>591565</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>663746</v>
+        <v>661912</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.5783723362850975</v>
+        <v>0.5783723362850977</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.5450847268010226</v>
+        <v>0.5469814071050444</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6137217902954489</v>
+        <v>0.6120258973730174</v>
       </c>
     </row>
     <row r="33">
@@ -2895,19 +2895,19 @@
         <v>231343</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>202432</v>
+        <v>203969</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>259910</v>
+        <v>263605</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.06722356932427699</v>
+        <v>0.067223569324277</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.05882266019935954</v>
+        <v>0.05926941186885491</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.07552448241750907</v>
+        <v>0.07659823967033981</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>614</v>
@@ -2916,19 +2916,19 @@
         <v>403613</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>373468</v>
+        <v>374927</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>435850</v>
+        <v>437427</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1110627278208965</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1027676761670593</v>
+        <v>0.1031689912749736</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1199334336035096</v>
+        <v>0.120367167550353</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>873</v>
@@ -2937,19 +2937,19 @@
         <v>634956</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>588628</v>
+        <v>594926</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>677816</v>
+        <v>680592</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.08974014850499287</v>
+        <v>0.08974014850499289</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.08319250650124244</v>
+        <v>0.08408251788614296</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.09579766702518629</v>
+        <v>0.09619006713828547</v>
       </c>
     </row>
     <row r="35">
@@ -2966,19 +2966,19 @@
         <v>206287</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>179763</v>
+        <v>179512</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>237330</v>
+        <v>236778</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.05994287645923828</v>
+        <v>0.05994287645923827</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.05223545689022251</v>
+        <v>0.05216247989664081</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.06896341601807418</v>
+        <v>0.06880307584248926</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>609</v>
@@ -2987,19 +2987,19 @@
         <v>375832</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>345960</v>
+        <v>348252</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>408972</v>
+        <v>407460</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1034181871187994</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.09519832745283709</v>
+        <v>0.09582883812068943</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1125374154212099</v>
+        <v>0.1121212774286185</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>838</v>
@@ -3008,19 +3008,19 @@
         <v>582119</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>543002</v>
+        <v>542651</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>624169</v>
+        <v>625120</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.08227257685592164</v>
+        <v>0.08227257685592165</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.07674401610812891</v>
+        <v>0.07669438616381165</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.08821555933305937</v>
+        <v>0.08835001912810593</v>
       </c>
     </row>
     <row r="36">
@@ -3037,19 +3037,19 @@
         <v>670645</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>620514</v>
+        <v>623792</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>718944</v>
+        <v>716493</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1948759511216168</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.180308963331352</v>
+        <v>0.1812614224775021</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2089107249668386</v>
+        <v>0.2081985284421903</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1407</v>
@@ -3058,19 +3058,19 @@
         <v>859670</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>813652</v>
+        <v>817010</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>903396</v>
+        <v>906865</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2365565088132425</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.223893569083471</v>
+        <v>0.2248176011675946</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2485883969981617</v>
+        <v>0.2495430144643225</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2145</v>
@@ -3079,19 +3079,19 @@
         <v>1530315</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1464399</v>
+        <v>1468872</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1596266</v>
+        <v>1596210</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2162838341591586</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2069676436579124</v>
+        <v>0.2075998402516968</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2256047993034117</v>
+        <v>0.2255969574068079</v>
       </c>
     </row>
     <row r="37">
@@ -3108,19 +3108,19 @@
         <v>2333119</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2272198</v>
+        <v>2278080</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>2387124</v>
+        <v>2394549</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.6779576030948679</v>
+        <v>0.6779576030948681</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.6602550233362329</v>
+        <v>0.6619643257174074</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.6936502862640799</v>
+        <v>0.6958078898638219</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>2612</v>
@@ -3129,19 +3129,19 @@
         <v>1994986</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1944305</v>
+        <v>1941900</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>2052539</v>
+        <v>2044307</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.5489625762470615</v>
+        <v>0.5489625762470616</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.5350166656735588</v>
+        <v>0.5343549423993328</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.5647995316578912</v>
+        <v>0.5625342177541373</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>4685</v>
@@ -3150,19 +3150,19 @@
         <v>4328105</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>4245489</v>
+        <v>4251321</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>4404213</v>
+        <v>4410204</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.6117034404799269</v>
+        <v>0.611703440479927</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.6000269959500275</v>
+        <v>0.6008512753307962</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.6224600140228016</v>
+        <v>0.6233066502906484</v>
       </c>
     </row>
     <row r="38">
